--- a/medicine/Enfance/Carmen_Campagne/Carmen_Campagne.xlsx
+++ b/medicine/Enfance/Carmen_Campagne/Carmen_Campagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carmen Campagne, née le 8 septembre 1959 à Willow Bunch est morte le 4 juillet 2018 à Sainte-Agathe-des-Monts, est une auteure-compositrice-interprète canadienne.
-Surnommée la diva des petits, elle connaît le succès dans les années 1990, notamment avec sa chanson Un bon chocolat chaud et ses vidéocassettes. Au début des années 2000, une faillite met un terme à sa carrière. En 2009, elle effectue un retour. Au cours de sa carrière au Canada et en France, elle vend plus d'un million d'albums, de cassettes et de DVD [1].
+Surnommée la diva des petits, elle connaît le succès dans les années 1990, notamment avec sa chanson Un bon chocolat chaud et ses vidéocassettes. Au début des années 2000, une faillite met un terme à sa carrière. En 2009, elle effectue un retour. Au cours de sa carrière au Canada et en France, elle vend plus d'un million d'albums, de cassettes et de DVD .
 </t>
         </is>
       </c>
@@ -514,29 +526,146 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeunesse
-Carmen Campagne est issue d'une famille fransaskoise de Willow Bunch autrefois Talle-de-Saults, où son père est propriétaire d'une ferme à 12 km du village. La musique est au cœur de la famille dont elle garde de bons souvenirs.
-Elle est l'une des 7 enfants d'Émile et Marguerite Campagne dont 6 sœurs (Aline, Annette, Michelle, Solange et Suzanne) et un frère (Paul)[2].
-Carrière
-Folle Avoine &amp; Hart-Rouge
-Dans les années 1970, Carmen Campagne, son frère et ses sœurs fondent le groupe Folle Avoine, qui se renomme Hart-Rouge dans les années 1980. Elle est la première à le quitter en 1986 pour se consacrer entièrement à son métier d'institutrice.
-Carrière solo
-En 1988, Carmen Campagne enregistre l'album Lullaby Berceuse avec sa belle-sœur Connie Kaldor qui rapporte l'an suivant un prix Juno.
-En 1990, elle enregistre son premier album, Une voix pour les enfants, qui est nommé aux Juno et aux Félix l'an suivant[3]. L'album est réalisé par son frère qui produit aussi les prochains, tandis que ses sœurs sont choristes. Campagne est encouragée par ses proches à continuer de faire de la musique pour les enfants.
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carmen Campagne est issue d'une famille fransaskoise de Willow Bunch autrefois Talle-de-Saults, où son père est propriétaire d'une ferme à 12 km du village. La musique est au cœur de la famille dont elle garde de bons souvenirs.
+Elle est l'une des 7 enfants d'Émile et Marguerite Campagne dont 6 sœurs (Aline, Annette, Michelle, Solange et Suzanne) et un frère (Paul).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Folle Avoine &amp; Hart-Rouge</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1970, Carmen Campagne, son frère et ses sœurs fondent le groupe Folle Avoine, qui se renomme Hart-Rouge dans les années 1980. Elle est la première à le quitter en 1986 pour se consacrer entièrement à son métier d'institutrice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Carrière solo</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, Carmen Campagne enregistre l'album Lullaby Berceuse avec sa belle-sœur Connie Kaldor qui rapporte l'an suivant un prix Juno.
+En 1990, elle enregistre son premier album, Une voix pour les enfants, qui est nommé aux Juno et aux Félix l'an suivant. L'album est réalisé par son frère qui produit aussi les prochains, tandis que ses sœurs sont choristes. Campagne est encouragée par ses proches à continuer de faire de la musique pour les enfants.
 Succès commercial
-Au cours des années 1990, Carmen Campagne enchaîne les albums et les vidéocassettes. Elle est la première artiste canadienne pour enfants à expérimenter la vidéocassette, qui lui donne un appui visuel. La première cassette vidéo commercialisée, Un bon chocolat chaud!, remporte un succès tout comme les suivantes, La moustache à papa et La soupe à mon ami, qui sont certifiées diamant par Music Canada[4].
-Vers la fin de la décennie, elle s'exporte sur le marché français[5] sous le label PolyGram où elle fait paraître l'album et la cassette vidéo Un bon chocolat chaud!. En 1999, elle s'associe à un concours de la chaîne Télétoon faisant la promotion de son album Bon voyage Babe[6]. Lors de ses tournées sur le sol français, elle chante à l'Olympia et au Casino de Paris[7].
+Au cours des années 1990, Carmen Campagne enchaîne les albums et les vidéocassettes. Elle est la première artiste canadienne pour enfants à expérimenter la vidéocassette, qui lui donne un appui visuel. La première cassette vidéo commercialisée, Un bon chocolat chaud!, remporte un succès tout comme les suivantes, La moustache à papa et La soupe à mon ami, qui sont certifiées diamant par Music Canada.
+Vers la fin de la décennie, elle s'exporte sur le marché français sous le label PolyGram où elle fait paraître l'album et la cassette vidéo Un bon chocolat chaud!. En 1999, elle s'associe à un concours de la chaîne Télétoon faisant la promotion de son album Bon voyage Babe. Lors de ses tournées sur le sol français, elle chante à l'Olympia et au Casino de Paris.
 Années difficiles
-En 2003, sa carrière prend une tournure dramatique après la faillite[8] des Productions Carmen Campagne. En effet, il s'agit d'une mauvaise gestion de son gérant et conjoint de l'époque, Daniel Fortier, qui est aux prises avec de sérieux problèmes de toxicomanie et de dépendance au jeu. Après cet épisode, elle divorce, confie ses deux plus jeunes enfants à des membres de sa famille (quant à elle, son aînée, qui avait 18 ans, part de la maison pour faire sa vie) et quitte finalement le Québec pour retourner en Saskatchewan. Elle avoue quelques années plus tard avoir été sur le bord de faire une dépression.
+En 2003, sa carrière prend une tournure dramatique après la faillite des Productions Carmen Campagne. En effet, il s'agit d'une mauvaise gestion de son gérant et conjoint de l'époque, Daniel Fortier, qui est aux prises avec de sérieux problèmes de toxicomanie et de dépendance au jeu. Après cet épisode, elle divorce, confie ses deux plus jeunes enfants à des membres de sa famille (quant à elle, son aînée, qui avait 18 ans, part de la maison pour faire sa vie) et quitte finalement le Québec pour retourner en Saskatchewan. Elle avoue quelques années plus tard avoir été sur le bord de faire une dépression.
 Pendant ces années loin des projecteurs, Campagne  fait de la suppléance, de la surveillance pour finalement obtenir un poste de professeure de musique à l'école de Bellegarde.
 Retour
-En 2009, Carmen Campagne fait un retour à la télévision avec l'émission Carmen à la campagne[9], diffusée à TFO jusqu'en 2011.
-Après deux ans à bord d'une émission pour enfants, elle lance l'album et le DVD Sur la ferme de grand-père en 2012. Il s'agit de son seizième album après 8 ans d'absence sur disque[10].
+En 2009, Carmen Campagne fait un retour à la télévision avec l'émission Carmen à la campagne, diffusée à TFO jusqu'en 2011.
+Après deux ans à bord d'une émission pour enfants, elle lance l'album et le DVD Sur la ferme de grand-père en 2012. Il s'agit de son seizième album après 8 ans d'absence sur disque.
 Les dernières années
 En 2014, Carmen Campagne reçoit l'Ordre du Canada pour sa contribution à la musique et à l'enseignement de la langue française.
-Mort et hommages
-Carmen Campagne meurt le 4 juillet 2018 à la suite d'un cancer, à l'âge de 58 ans[11]. Elle passe ses derniers temps à Sainte-Agathe-des-Monts auprès de ses proches, explique sa sœur Aline alors animatrice de radio le matin à CKSB-10-FM au Manitoba. Selon sa dernière volonté, elle est incinérée et ses cendres sont dispersées en pleine nature[réf. nécessaire].
-Au lendemain de sa mort, le sujet a l'effet d'une bombe médiatique au sein de la communauté canadienne française. De nombreuses personnalités fransaskoises lui rendent hommage. Le Téléjournal Saskatchewan consacre la majorité de l'édition à l'artiste[12].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort et hommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carmen Campagne meurt le 4 juillet 2018 à la suite d'un cancer, à l'âge de 58 ans. Elle passe ses derniers temps à Sainte-Agathe-des-Monts auprès de ses proches, explique sa sœur Aline alors animatrice de radio le matin à CKSB-10-FM au Manitoba. Selon sa dernière volonté, elle est incinérée et ses cendres sont dispersées en pleine nature[réf. nécessaire].
+Au lendemain de sa mort, le sujet a l'effet d'une bombe médiatique au sein de la communauté canadienne française. De nombreuses personnalités fransaskoises lui rendent hommage. Le Téléjournal Saskatchewan consacre la majorité de l'édition à l'artiste.
 Dans un message publié sur Facebook, sa sœur Annette Campagne parle désormais « d'une harmonie qui manque à la famille ».
 Michel Lalonde, membre du groupe La Raquette à Claquette, la décrit comme une ambassadrice : 
 « Carmen Campagne a partagé son amour de la musique et de la langue française avec les enfants de partout au pays, et elle restera dans les précieux souvenirs d'enfance d'innombrables canadiens. »
@@ -544,85 +673,288 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icône
-Carmen Campagne est devenu l'idole des petits francophones à travers le Canada jusqu'à ce qu'elle soit surnommé la diva des petits par la presse. Elle vend plus d'un million d'albums et de vidéocassettes à travers la francophonie. La vache à l'école et d'autres chansons sont devenus ses chansons signatures. Campagne est notamment l'une des personnalités non-québécoises à avoir eu une carrière hors de sa province natale même à l'échelle internationale, comme Daniel Lavoie, issu du Manitoba, ou Édith Butler, issue du Nouveau-Brunswick.
-Style musical
-L'enregistrement des albums était fait de façon familiale avec son frère Paul et ses sœurs alors membre d'Hart-Rouge. Elle mélange contemporain et traditionnel, lors d'une entrevue en 1995 à Radio-Canada, Campagne évoque qu'un enfant entend plus de sons qu'un adulte. Sa chanson Un bon chocolat chaud  est refait en plusieurs versions dont classique, hip-hop, banjo (country), Elvis (rock 'n' roll) ou encore Beatles (pop rock). La chanson La vache en Alaska est une composition basée sur La complainte du phoque en Alaska du groupe québécois Beau Dommage. Campagne s'est variée en matière linguistique dont essentiellement en français mais aussi en anglais, en espagnol et en créole haïtien.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Icône</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carmen Campagne est devenu l'idole des petits francophones à travers le Canada jusqu'à ce qu'elle soit surnommé la diva des petits par la presse. Elle vend plus d'un million d'albums et de vidéocassettes à travers la francophonie. La vache à l'école et d'autres chansons sont devenus ses chansons signatures. Campagne est notamment l'une des personnalités non-québécoises à avoir eu une carrière hors de sa province natale même à l'échelle internationale, comme Daniel Lavoie, issu du Manitoba, ou Édith Butler, issue du Nouveau-Brunswick.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Icône</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Style musical</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enregistrement des albums était fait de façon familiale avec son frère Paul et ses sœurs alors membre d'Hart-Rouge. Elle mélange contemporain et traditionnel, lors d'une entrevue en 1995 à Radio-Canada, Campagne évoque qu'un enfant entend plus de sons qu'un adulte. Sa chanson Un bon chocolat chaud  est refait en plusieurs versions dont classique, hip-hop, banjo (country), Elvis (rock 'n' roll) ou encore Beatles (pop rock). La chanson La vache en Alaska est une composition basée sur La complainte du phoque en Alaska du groupe québécois Beau Dommage. Campagne s'est variée en matière linguistique dont essentiellement en français mais aussi en anglais, en espagnol et en créole haïtien.
 Elle reprend des chansons d'autres artistes comme Ah ce qu'on est bien dans son bain d'Henri Salvador, Un éléphant sur mon balcon de Roger Whittaker, L'arbre est dans ses feuilles de Zachary Richard et Joy to the world de Three Dog Night au fil de sa discographie.
-Lauréat et nomination
-Gala de l'ADISQ
-Prix Juno[19]
-Victoires de la musique
-Autre prix
-Un prix Parent's Choice Award (États-Unis).
-Vie privée
-Éducation
-En plus d'être chanteuse, Carmen Campagne exerce le métier d'enseignante. À l'époque où elle est membre de Hart-Rouge, elle enseigne à temps partiel jusqu'à ce qu'elle quitte le groupe pour enseigner à temps plein.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lauréat et nomination</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autre prix</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un prix Parent's Choice Award (États-Unis).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus d'être chanteuse, Carmen Campagne exerce le métier d'enseignante. À l'époque où elle est membre de Hart-Rouge, elle enseigne à temps partiel jusqu'à ce qu'elle quitte le groupe pour enseigner à temps plein.
 Elle est mère de trois enfants, nés de sa relation avec Daniel Fortier.
-Farmfest
-Chaque été, les Campagne organisent Farmfest, un festival de musique qui a lieu à Willow Bunch sur la ferme familiale. Au fil des éditions, le nombre de spectateurs  atteint jusqu'à 200 personnes. Le soir du festival, la famille monte sur scène, chante des chansons. Une grange est aussi aménagée comme une salle de danse où les gens peuvent danser jusqu'au matin. Les gens sont également autorisés à camper aux abords de la ferme lors du festival.
-Divers
-Elle est bilingue et réputée francophile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Farmfest</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque été, les Campagne organisent Farmfest, un festival de musique qui a lieu à Willow Bunch sur la ferme familiale. Au fil des éditions, le nombre de spectateurs  atteint jusqu'à 200 personnes. Le soir du festival, la famille monte sur scène, chante des chansons. Une grange est aussi aménagée comme une salle de danse où les gens peuvent danser jusqu'au matin. Les gens sont également autorisés à camper aux abords de la ferme lors du festival.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est bilingue et réputée francophile.
 Elle a aidé à la relation entre Romy Kraushaar-Hébert et Julien Houde. Par ailleurs, la plupart de ses clips ont été produits par le célèbre producteur français Philippe Mounier.
 Elle a assuré la voix de Bianca Castafiore dans la version québécoise des films Tintin et le Temple du Soleil et Tintin et le Lac aux requins, à savoir que ces 2 films n'ont été doublés au Québec qu'en 1991, à l'occasion de la diffusion de la série animée de 1991.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Discographie principale
-Une voix pour les enfants (1990)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Une voix pour les enfants (1990)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Un bon chocolat chaud
 Le crapaud
 Au clair de la lune
@@ -640,7 +972,47 @@
 J'ai peur
 Feuilles feuilles
 Les titres en gras ont été ajoutés dans l'édition 10e anniversaire de l'album, sortie en 2000
-Rêves multicolores (1992)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rêves multicolores (1992)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La poule aux œufs d'or
 Berceuse pour compter
 L'oisillon fait dodo
@@ -653,7 +1025,47 @@
 Canon israélien
 Arrorro mi niño
 Rêves multicolores
-Une fête pour les enfants (1993)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Une fête pour les enfants (1993)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le beau petit bonhomme
 La petite chèvre
 Un pied mariton
@@ -668,7 +1080,47 @@
 Thelma et Bozo
 Marlo le mouton
 Il pleut bergère
-La magie de Noël (1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>La magie de Noël (1994)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Guillo, prends ton tambourin
 L'enfant au tambour
 Le Noël des musiciens
@@ -682,7 +1134,47 @@
 Mon beau sapin
 Sainte nuit
 Dors mon bel ange
-J'ai tant dansé (1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>J'ai tant dansé (1994)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 J'ai tant dansé
 J'aime, j'aime bien
 Un éléphant sur mon balcon
@@ -695,7 +1187,47 @@
 Camille la chenille
 Colette la belette
 À la volette
-La vache en Alaska (1995)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>La vache en Alaska (1995)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La soupe à mon ami
 Le cirque
 Il y a des accidents
@@ -710,7 +1242,47 @@
 Matilde le kangourou
 Chanson pour maman
 M C : Or (50 000 exemplaires)
-Enchantée (1997)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Enchantée (1997)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les instruments à vent
 Le yogourt aux fruits zydéco
 À St-Malo, beau port de mer
@@ -725,8 +1297,48 @@
 En passant par la Lorraine
 Mille façons
 M C : Or (50 000 exemplaires)
-FR : no 81[20]
-Le Téléfon (2001)
+FR : no 81
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Le Téléfon (2001)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La danse des zombies
 En filant ma quenouille
 Madame Bosso (pot-pourri cajun)
@@ -739,7 +1351,47 @@
 Tourne ma roulette
 Le tango de Marguerite (la vache) 
 Joy to the world
-Sur la ferme de grand-père (2012)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Discographie principale</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sur la ferme de grand-père (2012)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur la ferme de grand-père
 Carlos Cocorico
 Deux chiens sur la même laisse
@@ -754,13 +1406,91 @@
 Marie Calumet
 Petit poisson
 La vache à l'école
-Singles
-Bon Voyage Babe (1999)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Singles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Bon Voyage Babe (1999)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bon Voyage Babe
 La vache rap/classique
 Le titre en gras indique une chanson inédite
-Compilations
-La magie de Noël - Le classique (1999)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>La magie de Noël - Le classique (1999)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le dernier mois de l'année
 Guillo, prends ton tambourin
 Le Noël des musiciens
@@ -773,7 +1503,47 @@
 Trois anges
 Ce disque était inclus avec la vidéocassette La magie de Noël - Le Classique.
 Le titre en gras indique une chanson inédite.
-Le tango des animaux (2003)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Le tango des animaux (2003)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les pigeons Piou Piou et Quiou Quiou (Le pigeonnier)
 Colette la belette
 Delvina la poule (Cot, cot, cot)
@@ -786,7 +1556,47 @@
 Thelma la vache et Bozo le chien (Thelma et Bozo)
 Luce la puce
 Camille la chenille
-Dors mon petit, dors (2007)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dors mon petit, dors (2007)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Berceuse pour compter
 La poule aux œufs d'or
 Dodo l'enfant do
@@ -798,7 +1608,47 @@
 Canon israélien
 Arroró mi niño
 Au clair de la Lune
-Nous sommes les musiciens! (2007)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nous sommes les musiciens! (2007)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Nous sommes les musiciens (Les musiciens)
 Le crapaud
 Le petit prince
@@ -810,7 +1660,47 @@
 Les crocodiles
 La petite chèvre
 Le coucou a chanté
-Les douze jours de Noël (2007)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Les douze jours de Noël (2007)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les douze jours de Noël
 Guillo, prends ton tambourin
 L'enfant au tambour
@@ -822,7 +1712,47 @@
 D'où viens-tu bergère?
 Trois anges
 Mon beau sapin
-Les grandes chansons des tout-petits (2018)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Compilations</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Les grandes chansons des tout-petits (2018)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le crapaud et son solo de banjo (Le crapaud)
 Les crocodiles
 À Saint-Malo, beau port de mer
@@ -837,33 +1767,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Vidéographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bon chocolat chaud! (1995/08/22)
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Un bon chocolat chaud! (1995/08/22)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 J'ai tant dansé (1994, bande sonore)
 Mon père m’envoie au marché (1990, enregistrer la vidéo)
 La poule aux oeufs d'or (1992, chanson)
@@ -882,7 +1818,43 @@
 Rêves multicolores (1992, enregistrer la vidéo)
 Un bon chocolat chaud (1990, chanson)
 M C : Diamant (100 000 exemplaires)
-La moustache à papa (1996/09/09)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>La moustache à papa (1996/09/09)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Quelle drôle de question (1995, bande sonore)
 La moustache à papa (1993, chanson)
 J'ai tant dansé (1994, chanson)
@@ -903,8 +1875,47 @@
 La chanson du petit voilier (1990, chanson)
 Chanson pour maman (1995, bande sonore)
 M C : Diamant (100 000 exemplaires)
-Lieux de tournage
-La moustache à papa a été filmé dans divers endroits à Montréal[21] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>La moustache à papa (1996/09/09)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Lieux de tournage</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La moustache à papa a été filmé dans divers endroits à Montréal :
 Fleuve Saint-Laurent
 la boutique Fairmount Bagel
 Parc Jean-Drapeau, la Biosphère
@@ -913,7 +1924,43 @@
 Quartier chinois
 Quartier portugais (parc du Portugal)
 Station de métro Angrignon.
-La soupe à mon ami (1997/09/18)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>La soupe à mon ami (1997/09/18)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mathilde le kangourou (1995, bande sonore)
 La soupe à mon ami (1995, chanson)
 Le carnaval des animaux (1995, bande sonore)
@@ -937,8 +1984,43 @@
 La poule aux oeufs d'or (1992, chanson)
 La soupe à mon ami (1995, bande sonore/chanson)
 M C : Diamant (100 000 exemplaires)
-La magie de Noël - Le Classique (1999/10/18)
-Spectacle La magie de Noël enregistré en 1997
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>La magie de Noël - Le Classique (1999/10/18)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spectacle La magie de Noël enregistré en 1997
 L'enfant au tambour
 Le dernier mois de l'année
 Mon beau sapin
@@ -952,7 +2034,43 @@
 Trois anges
 Petit papa Noël
 Les titres en gras indiquent des chansons qui ne sont pas dans le spectacle. Elles ont été ajoutées dans le cadre de la vidéocassette.
-Le Téléfon (2001)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Le Téléfon (2001)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le téléfon
 Madame Bosso (pot-pourri cajun)
 La danse des zombies
@@ -965,7 +2083,43 @@
 Parce que ça me donne du courage
 La valse du maître draveur
 Joy to the world
-Sur la ferme de grand-père (2012)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carmen_Campagne</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Vidéographie</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sur la ferme de grand-père (2012)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur la ferme de grand-père
 Carlos Cocorico
 Deux chiens sur la même laisse
